--- a/Daily Progress Final.xlsx
+++ b/Daily Progress Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leetcoding\Neetcode 150\Neetcode-150\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C508E3-9D5A-4147-88D5-BE1A2F6775F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98C87E9-6629-4818-B283-6E963451E63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="NeetCode 150" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>Question</t>
   </si>
@@ -131,10 +130,19 @@
     <t>Trapping Rain Water</t>
   </si>
   <si>
-    <t>Stack</t>
-  </si>
-  <si>
     <t>Use one stack, push in all starting brackets if key in dict, for closing brackets check if starting exists in dict else false</t>
+  </si>
+  <si>
+    <t>Valid Paranthesis</t>
+  </si>
+  <si>
+    <t>Find minimum in rotated sorted array</t>
+  </si>
+  <si>
+    <t>Search in Rotated sorted array</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
   </si>
 </sst>
 </file>
@@ -462,7 +470,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,63 +641,72 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>

--- a/Daily Progress Final.xlsx
+++ b/Daily Progress Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leetcoding\Neetcode 150\Neetcode-150\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98C87E9-6629-4818-B283-6E963451E63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D9A653-DAB0-4B8D-9C50-19D27F4F10A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>Question</t>
   </si>
@@ -143,13 +143,34 @@
   </si>
   <si>
     <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Merge two sorted lists</t>
+  </si>
+  <si>
+    <t>Reorder Lists</t>
+  </si>
+  <si>
+    <t>Remove nth node from the end of the list</t>
+  </si>
+  <si>
+    <t>Linked list cycle</t>
+  </si>
+  <si>
+    <t>Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>Maintain three pointers, prev=None and curr start before the loop</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +182,29 @@
       <sz val="10"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,15 +224,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,7 +677,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
@@ -640,11 +688,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -652,68 +697,100 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" display="https://leetcode.com/problems/longest-repeating-character-replacement/" xr:uid="{EAE08ABF-3582-433E-9E15-F38B737FF268}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Daily Progress Final.xlsx
+++ b/Daily Progress Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leetcoding\Neetcode 150\Neetcode-150\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D9A653-DAB0-4B8D-9C50-19D27F4F10A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6488078-CA27-466D-8800-781B6AF3D396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>Question</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>Subtree of another tree</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
   </si>
 </sst>
 </file>
@@ -515,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,15 +783,94 @@
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Daily Progress Final.xlsx
+++ b/Daily Progress Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leetcoding\Neetcode 150\Neetcode-150\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6488078-CA27-466D-8800-781B6AF3D396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2085F08-C4DB-4B64-913C-4E8F31A7F118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
   <si>
     <t>Question</t>
   </si>
@@ -173,6 +173,54 @@
   </si>
   <si>
     <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Counter for most freq element (Ele), While size of window - Ele &lt;= K, move two pointers. Maintain the max size and return</t>
+  </si>
+  <si>
+    <t>Check if you are in the left sorted portion or the right sorted portion. Then make conditions depending on where the other number</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Make a dummy tail node, loop through both the lists through tail, increment the lists as well as tail. Lastly concatenate the remaining list</t>
+  </si>
+  <si>
+    <t>Divide the linked list in 2, reverse the second linked list and do 19</t>
+  </si>
+  <si>
+    <t>Loop through first list till n, then start another loop incrementing both at once while r reaches end. Then lef=left.next.net</t>
+  </si>
+  <si>
+    <t>One fast pointer and one slow pointer, where they converge is the cycle</t>
+  </si>
+  <si>
+    <t>swap nodes using a temp pointer, then recursively call the subsequent nodes</t>
+  </si>
+  <si>
+    <t>Two functions, isSubTree and isSameTree. In isSubTree, first check some edge cases, then call issametree on root,Subroot then finally recursively return isSubtree self call</t>
+  </si>
+  <si>
+    <t>Understand it is a binary tree and use the example to come up with some if else conditions</t>
+  </si>
+  <si>
+    <t>Validate binary search tree</t>
+  </si>
+  <si>
+    <t>Kth smallest element in a BST</t>
+  </si>
+  <si>
+    <t>Basically BFS using a queue</t>
+  </si>
+  <si>
+    <t>There has to be a range from -infinity to infinity at root which changes at each node, evaluate that and return</t>
+  </si>
+  <si>
+    <t>Inorder traversal while storing in an array, then return first k elements of the array</t>
+  </si>
+  <si>
+    <t>First element in preorder is the new root, use it in inorder to find the mid. Use this mid to splice inorder and postorder for recursive calls</t>
   </si>
 </sst>
 </file>
@@ -526,14 +574,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.21875" customWidth="1"/>
-    <col min="2" max="2" width="45.21875" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" customWidth="1"/>
     <col min="3" max="3" width="89.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
   </cols>
@@ -700,6 +748,9 @@
       <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -719,6 +770,9 @@
       <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -746,6 +800,9 @@
       <c r="B20" t="s">
         <v>39</v>
       </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -754,6 +811,9 @@
       <c r="B21" t="s">
         <v>40</v>
       </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -762,6 +822,9 @@
       <c r="B22" t="s">
         <v>41</v>
       </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -770,6 +833,9 @@
       <c r="B23" t="s">
         <v>42</v>
       </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -778,13 +844,19 @@
       <c r="B24" t="s">
         <v>45</v>
       </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -794,6 +866,9 @@
       <c r="B26" t="s">
         <v>47</v>
       </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -802,20 +877,41 @@
       <c r="B27" t="s">
         <v>48</v>
       </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">

--- a/Daily Progress Final.xlsx
+++ b/Daily Progress Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leetcoding\Neetcode 150\Neetcode-150\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2085F08-C4DB-4B64-913C-4E8F31A7F118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1AFD62-09B5-4A77-8718-3563347024DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>Question</t>
   </si>
@@ -221,13 +221,31 @@
   </si>
   <si>
     <t>First element in preorder is the new root, use it in inorder to find the mid. Use this mid to splice inorder and postorder for recursive calls</t>
+  </si>
+  <si>
+    <t>Implement Trie Prefix Tree</t>
+  </si>
+  <si>
+    <t>TrieNode class should have children, EndOfWord, Trie Class should initialize TrieNode as root, then implement insert, search, startsWith</t>
+  </si>
+  <si>
+    <t>Design Add and Search Words Data Structure</t>
+  </si>
+  <si>
+    <t>Same but search function should be recursive</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use dfs backtracking, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +281,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -285,12 +309,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -575,7 +601,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,53 +944,71 @@
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -972,9 +1016,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B15" r:id="rId1" display="https://leetcode.com/problems/longest-repeating-character-replacement/" xr:uid="{EAE08ABF-3582-433E-9E15-F38B737FF268}"/>
+    <hyperlink ref="B31" r:id="rId2" display="https://leetcode.com/problems/implement-trie-prefix-tree/" xr:uid="{4A638457-62DE-4ABC-B20B-A6DF5DB5F97D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Daily Progress Final.xlsx
+++ b/Daily Progress Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leetcoding\Neetcode 150\Neetcode-150\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1AFD62-09B5-4A77-8718-3563347024DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C61EC8-7266-45D4-A2EF-076747F4241D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>Question</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t xml:space="preserve">Use dfs backtracking, </t>
+  </si>
+  <si>
+    <t>Word Search</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
   </si>
 </sst>
 </file>
@@ -601,7 +607,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,10 +983,16 @@
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">

--- a/Daily Progress Final.xlsx
+++ b/Daily Progress Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leetcoding\Neetcode 150\Neetcode-150\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C61EC8-7266-45D4-A2EF-076747F4241D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D7EBB7-F25F-4C86-A784-DFC75E3444C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>Question</t>
   </si>
@@ -245,6 +245,21 @@
   </si>
   <si>
     <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water flow</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>Number of Connected components in a directed graph</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
   </si>
 </sst>
 </file>
@@ -604,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,30 +1014,40 @@
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
+      <c r="B40" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
